--- a/biology/Botanique/Hymenophyllum_pallidum/Hymenophyllum_pallidum.xlsx
+++ b/biology/Botanique/Hymenophyllum_pallidum/Hymenophyllum_pallidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum pallidum est une espèce de fougères de la famille des Hyménophyllacées.
 Synonymes : Craspedoneuron album (Blume) Bosch, Craspedoneuron pallidum (Blume) Bosch, Crepidomanes album K.Iwats., Crepidomanes pallidum (Blume) K.Iwats., Pleuromanes album (Blume) Parris, Pleuromanes pallidum (Blume) C.Presl, Trichomanes album Blume, Trichomanes fusco-glaucescens Hook., Trichomanes glaucescens Bosch, Trichomanes glaucofuscum Hook., Trichomanes pallidum Blume, Trichomanes savaiense Lauterb..
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum pallidum appartient au sous-genre Pleuromanes.
 Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
-les frondes, d'une vingtaine de centimètres de long, comportent un limbe divisé deux fois, d'une couleur glauque-pâle à l'état sec : cette pâleur est à l'origine de l'épithète spécifique[1] ;
+les frondes, d'une vingtaine de centimètres de long, comportent un limbe divisé deux fois, d'une couleur glauque-pâle à l'état sec : cette pâleur est à l'origine de l'épithète spécifique ;
 l'ensemble de la plante est glabre ;
 Les sores, solitaires, sont portés par l'extrémité d'un segment axillaire, majoritairement à la partie terminale du limbe et proche du rachis ;
 l'indusie, tubulaire, est terminée par deux lèvres peu marquées ;
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente dans presque toutes les îles du Pacifique tropical -  Ceylan, Malaisie, Philippines, Océanie... -, en particulier en Nouvelle-Calédonie.
 </t>
